--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrjryka\Documents\Tools\exceler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoji\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -253,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,83 +574,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -653,7 +660,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="E16" s="4"/>
@@ -665,7 +672,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="E17" s="4"/>
@@ -677,7 +684,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="E18" s="4"/>
@@ -689,7 +696,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="E19" s="4"/>
@@ -701,7 +708,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
       <c r="E20" s="7"/>
@@ -713,32 +720,34 @@
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="43" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -750,13 +759,13 @@
       <selection activeCell="K6" sqref="K6:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -766,7 +775,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="14"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -776,7 +785,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="14"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -786,7 +795,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="14"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -798,7 +807,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="14"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -810,7 +819,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="14"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -822,7 +831,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="14"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -834,7 +843,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -846,7 +855,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -858,19 +867,20 @@
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="K14" s="7"/>
       <c r="L14" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -879,13 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="L9" sqref="L9:O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -895,7 +905,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -905,7 +915,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -915,7 +925,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -929,7 +939,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -943,7 +953,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -957,7 +967,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -971,7 +981,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -985,19 +995,19 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="L15" s="4"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1010,7 +1020,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1023,7 +1033,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1036,7 +1046,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1045,7 +1055,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1054,7 +1064,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1063,7 +1073,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1073,6 +1083,7 @@
       <c r="J22" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>